--- a/biology/Origine et évolution du vivant/Symplésiomorphie/Symplésiomorphie.xlsx
+++ b/biology/Origine et évolution du vivant/Symplésiomorphie/Symplésiomorphie.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Sympl%C3%A9siomorphie</t>
+          <t>Symplésiomorphie</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">En systématique phylogénétique (cladistique), une symplésiomorphie (ou caractère symplésiomorphique) est un caractère ancestral (ou plésiomorphie)
 partagé par deux taxons ou plus ;
-à condition qu’il soit hérité d’un ancêtre commun, ce caractère représentant l’état ancestral[1].
+à condition qu’il soit hérité d’un ancêtre commun, ce caractère représentant l’état ancestral.
 Ce terme est donc plus précis que celui de « similitude » des généticiens et d’« homologie partagée » des évolutionnistes – cette dernière portant sur un patron commun dont les deux caractères, ancestral et dérivé, ne constitueraient que deux formes distinctes.
 Cependant cette symplésiomorphie n’est pas suffisante pour fonder des groupes de taxons, les synapomorphies étant nécessaires, et son concept montre les limites que représente le regroupement d’espèces sur la base d’une ressemblance de leurs seuls caractères morphologiques ou génétiques, sans faire la différence entre les ressemblances dues à des caractères primitifs ou dérivés.
 </t>
@@ -497,7 +509,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Sympl%C3%A9siomorphie</t>
+          <t>Symplésiomorphie</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -515,7 +527,9 @@
           <t>Exemples de symplésiomorphie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>les cinq doigts que possèdent de nombreux vertébrés tétrapodes et qui représentent un de leurs états ancestraux. Dans plusieurs groupes ce nombre de doigts a été réduit par des adaptations spécifiques, mais la main humaine partage ce caractère avec, par exemple, les pattes des lézards.
 les branchies des poissons cartilagineux existantes chez leur ancêtre commun mais perdues chez leurs descendants vertébrés.
